--- a/j监控/模板监控项设计20180403.xlsx
+++ b/j监控/模板监控项设计20180403.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="12300"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="系统Common" sheetId="1" r:id="rId1"/>
@@ -226,10 +226,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>perf_counter["\Process(请输入进程名)\Page File Bytes"]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>cache:内存使用率</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -801,6 +797,10 @@
   </si>
   <si>
     <t>字符</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>perf_counter["\Process(请输入不带后缀的进程名)\Page File Bytes"]</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1840,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1947,10 +1947,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -1989,7 +1989,7 @@
         <v>20</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>22</v>
@@ -2009,13 +2009,13 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="2">
         <v>43200</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>22</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -2054,7 +2054,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="2">
         <v>3600</v>
@@ -2081,13 +2081,13 @@
         <v>20</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -2101,7 +2101,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" s="2">
         <v>43200</v>
@@ -2128,13 +2128,13 @@
         <v>20</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -2148,7 +2148,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" s="2">
         <v>43200</v>
@@ -2179,7 +2179,7 @@
         <v>22</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -2193,7 +2193,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" s="2">
         <v>300</v>
@@ -2205,7 +2205,7 @@
         <v>536870912</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I8" s="2">
         <v>7200</v>
@@ -2220,13 +2220,13 @@
         <v>20</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -2240,7 +2240,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E9" s="2">
         <v>3600</v>
@@ -2265,13 +2265,13 @@
         <v>32</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -2285,19 +2285,19 @@
         <v>16</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2">
         <v>600</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="2">
         <v>95</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10" s="2">
         <v>7200</v>
@@ -2312,13 +2312,13 @@
         <v>32</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
@@ -2421,19 +2421,19 @@
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2">
         <v>1800</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G2" s="2">
         <v>10485760</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I2" s="2">
         <v>3600</v>
@@ -2448,13 +2448,13 @@
         <v>38</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -2468,7 +2468,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" s="2">
         <v>1800</v>
@@ -2495,13 +2495,13 @@
         <v>38</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -2515,7 +2515,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E4" s="2">
         <v>300</v>
@@ -2534,19 +2534,19 @@
         <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -2560,7 +2560,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E5" s="2">
         <v>300</v>
@@ -2591,7 +2591,7 @@
         <v>40</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -2605,7 +2605,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E6" s="2">
         <v>300</v>
@@ -2630,13 +2630,13 @@
         <v>38</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -2650,7 +2650,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="2">
         <v>300</v>
@@ -2675,13 +2675,13 @@
         <v>38</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -2803,19 +2803,19 @@
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2">
         <v>300</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2">
         <v>10485760</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I2" s="2">
         <v>3600</v>
@@ -2830,16 +2830,16 @@
         <v>38</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
@@ -2853,19 +2853,19 @@
         <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2">
         <v>300</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3" s="2">
         <v>10485760</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I3" s="2">
         <v>3600</v>
@@ -2880,16 +2880,16 @@
         <v>38</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
@@ -2903,7 +2903,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4" s="2">
         <v>300</v>
@@ -2925,19 +2925,19 @@
         <v>37</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
@@ -2951,13 +2951,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E5" s="2">
         <v>300</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
@@ -2976,16 +2976,16 @@
         <v>38</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
@@ -2999,13 +2999,13 @@
         <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="2">
         <v>300</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6" s="2">
         <v>10</v>
@@ -3024,16 +3024,16 @@
         <v>38</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
@@ -3047,13 +3047,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2">
         <v>300</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G7" s="2">
         <v>10</v>
@@ -3072,16 +3072,16 @@
         <v>38</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3169,7 +3169,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2">
         <v>300</v>
@@ -3196,13 +3196,13 @@
         <v>20</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -3216,7 +3216,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>600</v>
@@ -3249,7 +3249,7 @@
         <v>22</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -3263,7 +3263,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" s="2">
         <v>600</v>
@@ -3290,13 +3290,13 @@
         <v>38</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -3310,7 +3310,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E5" s="2">
         <v>600</v>
@@ -3337,13 +3337,13 @@
         <v>38</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="27" x14ac:dyDescent="0.15">
@@ -3357,7 +3357,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E6" s="2">
         <v>600</v>
@@ -3384,13 +3384,13 @@
         <v>38</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -3404,7 +3404,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E7" s="2">
         <v>600</v>
@@ -3431,13 +3431,13 @@
         <v>38</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -3451,7 +3451,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" s="2">
         <v>600</v>
@@ -3478,13 +3478,13 @@
         <v>38</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -3498,7 +3498,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E9" s="2">
         <v>600</v>
@@ -3525,13 +3525,13 @@
         <v>38</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -3545,19 +3545,19 @@
         <v>16</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2">
         <v>600</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I10" s="2">
         <v>3600</v>
@@ -3566,19 +3566,19 @@
         <v>80</v>
       </c>
       <c r="K10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="O10" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
@@ -3608,8 +3608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3706,13 +3706,13 @@
         <v>20</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -3753,13 +3753,13 @@
         <v>20</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -3773,7 +3773,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2">
         <v>300</v>
@@ -3785,7 +3785,7 @@
         <v>90</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="2">
         <v>7200</v>
@@ -3794,19 +3794,19 @@
         <v>80</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -3820,7 +3820,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2">
         <v>300</v>
@@ -3847,13 +3847,13 @@
         <v>20</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -3867,7 +3867,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2">
         <v>300</v>
@@ -3894,13 +3894,13 @@
         <v>20</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -3914,13 +3914,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2">
         <v>1800</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -3945,7 +3945,7 @@
         <v>22</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -3959,19 +3959,19 @@
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2">
         <v>600</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="2">
         <v>3600</v>
@@ -3980,19 +3980,19 @@
         <v>80</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="O8" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -4161,7 +4161,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2">
         <v>3600</v>
@@ -4182,19 +4182,19 @@
         <v>50</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -4208,13 +4208,13 @@
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2">
         <v>3600</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3" s="2">
         <v>1E-3</v>
@@ -4229,19 +4229,19 @@
         <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -4255,7 +4255,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="8">
         <v>3600</v>
@@ -4276,19 +4276,19 @@
         <v>50</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -4302,7 +4302,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="8">
         <v>3600</v>
@@ -4323,19 +4323,19 @@
         <v>50</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -4349,7 +4349,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="8">
         <v>1800</v>
@@ -4382,7 +4382,7 @@
         <v>22</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -4396,19 +4396,19 @@
         <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="8">
         <v>600</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I7" s="8">
         <v>3600</v>
@@ -4417,19 +4417,19 @@
         <v>80</v>
       </c>
       <c r="K7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="O7" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -4443,19 +4443,19 @@
         <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="8">
         <v>600</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="8">
         <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="8">
         <v>3600</v>
@@ -4464,19 +4464,19 @@
         <v>80</v>
       </c>
       <c r="K8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="N8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="O8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -4490,7 +4490,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="8">
         <v>600</v>
@@ -4502,7 +4502,7 @@
         <v>90</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I9" s="8">
         <v>7200</v>
@@ -4511,19 +4511,19 @@
         <v>70</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -4537,19 +4537,19 @@
         <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="8">
         <v>600</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="8">
         <v>95</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10" s="8">
         <v>7200</v>
@@ -4558,19 +4558,19 @@
         <v>60</v>
       </c>
       <c r="K10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
@@ -4707,19 +4707,19 @@
         <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>1800</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2">
         <v>3600</v>
@@ -4728,19 +4728,19 @@
         <v>80</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -4754,7 +4754,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2">
         <v>1800</v>
@@ -4766,7 +4766,7 @@
         <v>95</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="2">
         <v>7200</v>
@@ -4775,19 +4775,19 @@
         <v>60</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -4801,7 +4801,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2">
         <v>600</v>
@@ -4813,7 +4813,7 @@
         <v>100</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I4" s="2">
         <v>7200</v>
@@ -4822,19 +4822,19 @@
         <v>80</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -4848,7 +4848,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="2">
         <v>600</v>
@@ -4860,7 +4860,7 @@
         <v>100</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I5" s="2">
         <v>7200</v>
@@ -4869,19 +4869,19 @@
         <v>85</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -4895,13 +4895,13 @@
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2">
         <v>600</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="2">
         <v>4</v>
@@ -4914,19 +4914,19 @@
         <v>85</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -5003,19 +5003,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
         <v>600</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2">
         <v>600</v>
@@ -5028,19 +5028,19 @@
         <v>80</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -5048,25 +5048,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2">
         <v>43200</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I3" s="2">
         <v>43200</v>
@@ -5075,19 +5075,19 @@
         <v>60</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -5095,25 +5095,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2">
         <v>43200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="2">
         <v>1024</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I4" s="2">
         <v>43200</v>
@@ -5122,19 +5122,19 @@
         <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="O4" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -5142,25 +5142,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" s="2">
         <v>3600</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G5" s="2">
         <v>95</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" s="2">
         <v>7200</v>
@@ -5169,19 +5169,19 @@
         <v>80</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="O5" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -5189,13 +5189,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="2">
         <v>600</v>
@@ -5210,19 +5210,19 @@
         <v>50</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="O6" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -5230,13 +5230,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2">
         <v>600</v>
@@ -5251,19 +5251,19 @@
         <v>50</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="O7" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">

--- a/j监控/模板监控项设计20180403.xlsx
+++ b/j监控/模板监控项设计20180403.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="系统Common" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="196">
   <si>
     <t>序号</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -154,653 +154,653 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>sys:连通性测试ping</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytes/s</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动采集</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNMPOid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>==</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNMP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache:内存可用大小</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache:进程使用内存大小</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache:内存使用率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>vm.memory.size[pused]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache:网卡流入量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache:网卡流出量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache:tcp端口检查</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>!=</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs:服务进程状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动采集</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache:服务进程状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle:磁盘平均每秒读取统计信息</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle:磁盘处理的每个读IO的平均时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle:磁盘平均每秒写入统计信息</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle:磁盘处理的每个写IO的平均时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>system.cpu.util[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys:cpu使用率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动采集</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs:磁盘剩余空间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>proc.num[oracle.exe]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>proc.num[TNSLSNR.EXE]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle:磁盘剩余空间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle:oracle主进程状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle:监听服务进程状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle:内存使用率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle:cpu使用率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>proc.num[请输入进程名]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>web:服务进程状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>web:内存使用率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>web:IIS站点当前请求数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>web:IIS站点当前进程数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>==</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>web:IIS站点运行状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库常用监控类型</t>
+  </si>
+  <si>
+    <t>DB_ORACLE</t>
+  </si>
+  <si>
+    <t>字符</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>db:表数据行数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>db:是否能连接成功</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>行</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库采集</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>db:表占用磁盘空间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>db:PGA使用率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>db:PGA命中率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>db:SGA使用率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net:错误输出报文数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bps</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.if.out[ifOutOctets.输入index]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.if.in[ifInOctets.输入index]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.1.3.6.1.2.1.2.2.1.10.输入index</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.1.3.6.1.2.1.2.2.1.16.输入index</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.1.3.6.1.2.1.2.2.1.5.输入index</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.if.speed[ifSpeed.输入index]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.if.in.discards[ifInDiscards.输入index]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.1.3.6.1.2.1.2.2.1.13.输入index</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net:接口输入流量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net:接口输出流量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.if.in.errors[ifInErrors.输入index]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.1.3.6.1.2.1.2.2.1.14.输入index</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.1.3.6.1.2.1.2.2.1.20.输入index</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.if.out.errors[ifOutErrors.输入index]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动采集</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventlog[System,,"Warning|Error"]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys:域名可用性检查</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>==</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.dns[请输入ip地址,请输入域名]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys:进出流量总和</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.if.total[请输入ip地址,bytes]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys:系统盘空间使用率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>vfs.fs.size[/,pused]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>vfs.fs.size[请输入路径,free]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys:内存可用大小</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>vm.memory.size[free]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys:采集客户端可用性</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent.ping</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>msmq:网卡流入量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytes/s</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.if.in[请输入ip地址,bytes]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>msmq:网卡流出量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.if.out[请输入ip地址,bytes]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>msmq:通道流入信息数量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>perf_counter["\MSMQ Service\MSMQ Incoming Messages"]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>msmq:队列深度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>perf_counter["\MSMQ Queue(队列名称)\Messages in Queue"]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>msmq:每秒入通道数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>perf_counter["\MSMQ Service\Incoming Messages/sec"]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>msmq:每秒出通道数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>perf_counter["\MSMQ Service\Outgoing Messages/sec"]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net:接口速率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net:丢弃输入报文数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net:错误输入报文数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs:内存可用大小</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs:网卡流入量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs:网卡流出量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>perf_counter["\PhysicalDisk(_Total)\Disk Reads/sec"]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs:磁盘处理的每个读IO的平均时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>perf_counter["\PhysicalDisk(_Total)\Avg. Disk sec/Read"]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs:磁盘平均每秒写入统计信息</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>perf_counter["\PhysicalDisk(_Total)\Disk Writes/sec"]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs:磁盘处理的每个写IO的平均时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>perf_counter["\PhysicalDisk(_Total)\Avg. Disk sec/Write"]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>proc.num[请输入进程]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>vm.memory.size[free]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>proc.num[请输入进程]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.tcp.port[请输入ip,请输入端口号]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>perf_counter["\PhysicalDisk(_Total)\Disk Reads/sec"]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>perf_counter["\PhysicalDisk(_Total)\Avg. Disk sec/Write"]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>vfs.fs.size[请输入路径,free]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>perf_counter["\Web Service(请输入应用网站名称)\Current Connections"]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>perf_counter["\APP_POOL_WAS(请输入应用程序池名称)\当前工作进程数"]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>perf_counter["\APP_POOL_WAS(请输入应用程序池名称)\当前应用程序池状态"]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>select 'success' from dual;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(1) from 请填入表名</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT  BYTES / 1024 / 1024 MB FROM user_segments where segment_name = upper('请填入表名');</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT round(value,2) FROM V$PGASTAT WHERE NAME='cache hit percentage';</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>select round((total-free)/total*100,2) "pctused%",name,total,round(total-free,2) used, round(free,2) free from (select 'SGA' name,(select sum(value/1024/1024) from v$sga) total,(select sum(bytes/1024/1024) from v$sgastat where name='free memory')free from dual);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys:磁盘剩余空间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs:磁盘平均每秒读取统计信息</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>perf_counter["\Process(请输入不带后缀的进程名)\Page File Bytes"]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notExsits</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>sys:系统日志</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys:连通性测试ping</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bytes/s</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动采集</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNMPOid</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>==</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNMP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>秒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cache:内存可用大小</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cache:进程使用内存大小</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cache:内存使用率</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>vm.memory.size[pused]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cache:网卡流入量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cache:网卡流出量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cache:tcp端口检查</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>!=</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fs:服务进程状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动采集</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cache:服务进程状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>oracle:磁盘平均每秒读取统计信息</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>oracle:磁盘处理的每个读IO的平均时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>oracle:磁盘平均每秒写入统计信息</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>oracle:磁盘处理的每个写IO的平均时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>system.cpu.util[]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys:cpu使用率</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动采集</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fs:磁盘剩余空间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>proc.num[oracle.exe]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>proc.num[TNSLSNR.EXE]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>oracle:磁盘剩余空间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>oracle:oracle主进程状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>oracle:监听服务进程状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>oracle:内存使用率</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>oracle:cpu使用率</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>proc.num[请输入进程名]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>web:服务进程状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>web:内存使用率</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>web:IIS站点当前请求数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>web:IIS站点当前进程数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>==</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>web:IIS站点运行状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库常用监控类型</t>
-  </si>
-  <si>
-    <t>DB_ORACLE</t>
-  </si>
-  <si>
-    <t>exsits</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>db:表数据行数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>db:是否能连接成功</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>行</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库采集</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>db:表占用磁盘空间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MB</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>db:PGA使用率</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>db:PGA命中率</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>db:SGA使用率</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>net:错误输出报文数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bps</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>net.if.out[ifOutOctets.输入index]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>net.if.in[ifInOctets.输入index]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.1.3.6.1.2.1.2.2.1.10.输入index</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.1.3.6.1.2.1.2.2.1.16.输入index</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.1.3.6.1.2.1.2.2.1.5.输入index</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>net.if.speed[ifSpeed.输入index]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>net.if.in.discards[ifInDiscards.输入index]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.1.3.6.1.2.1.2.2.1.13.输入index</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>net:接口输入流量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>net:接口输出流量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>net.if.in.errors[ifInErrors.输入index]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.1.3.6.1.2.1.2.2.1.14.输入index</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>.1.3.6.1.2.1.2.2.1.20.输入index</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>net.if.out.errors[ifOutErrors.输入index]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动采集</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventlog[System,,"Warning|Error"]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys:域名可用性检查</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>==</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>net.dns[请输入ip地址,请输入域名]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys:进出流量总和</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>net.if.total[请输入ip地址,bytes]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys:系统盘空间使用率</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>vfs.fs.size[/,pused]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>vfs.fs.size[请输入路径,free]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys:内存可用大小</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bytes</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>vm.memory.size[free]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys:采集客户端可用性</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>agent.ping</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>msmq:网卡流入量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bytes/s</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>net.if.in[请输入ip地址,bytes]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>msmq:网卡流出量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>net.if.out[请输入ip地址,bytes]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>msmq:通道流入信息数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>perf_counter["\MSMQ Service\MSMQ Incoming Messages"]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>msmq:队列深度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>perf_counter["\MSMQ Queue(队列名称)\Messages in Queue"]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>msmq:每秒入通道数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>perf_counter["\MSMQ Service\Incoming Messages/sec"]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>msmq:每秒出通道数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>perf_counter["\MSMQ Service\Outgoing Messages/sec"]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>net:接口速率</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>net:丢弃输入报文数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>net:错误输入报文数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fs:内存可用大小</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fs:网卡流入量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fs:网卡流出量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>perf_counter["\PhysicalDisk(_Total)\Disk Reads/sec"]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fs:磁盘处理的每个读IO的平均时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>perf_counter["\PhysicalDisk(_Total)\Avg. Disk sec/Read"]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fs:磁盘平均每秒写入统计信息</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>perf_counter["\PhysicalDisk(_Total)\Disk Writes/sec"]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fs:磁盘处理的每个写IO的平均时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>perf_counter["\PhysicalDisk(_Total)\Avg. Disk sec/Write"]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>proc.num[请输入进程]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>vm.memory.size[free]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>proc.num[请输入进程]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>net.tcp.port[请输入ip,请输入端口号]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>perf_counter["\PhysicalDisk(_Total)\Disk Reads/sec"]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>perf_counter["\PhysicalDisk(_Total)\Avg. Disk sec/Write"]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>vfs.fs.size[请输入路径,free]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>perf_counter["\Web Service(请输入应用网站名称)\Current Connections"]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>perf_counter["\APP_POOL_WAS(请输入应用程序池名称)\当前工作进程数"]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>perf_counter["\APP_POOL_WAS(请输入应用程序池名称)\当前应用程序池状态"]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>select 'success' from dual;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>select count(1) from 请填入表名</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT  BYTES / 1024 / 1024 MB FROM user_segments where segment_name = upper('请填入表名');</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT round(value,2) FROM V$PGASTAT WHERE NAME='cache hit percentage';</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>select round((total-free)/total*100,2) "pctused%",name,total,round(total-free,2) used, round(free,2) free from (select 'SGA' name,(select sum(value/1024/1024) from v$sga) total,(select sum(bytes/1024/1024) from v$sgastat where name='free memory')free from dual);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮点型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys:磁盘剩余空间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fs:磁盘平均每秒读取统计信息</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>perf_counter["\Process(请输入不带后缀的进程名)\Page File Bytes"]</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1840,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1917,7 +1917,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="E2" s="2">
         <v>3600</v>
@@ -1928,9 +1928,7 @@
       <c r="G2" s="2">
         <v>300</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2">
         <v>7200</v>
       </c>
@@ -1947,10 +1945,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -1964,7 +1962,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2">
         <v>3600</v>
@@ -1989,7 +1987,7 @@
         <v>20</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>22</v>
@@ -2009,13 +2007,13 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E4" s="2">
         <v>43200</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -2040,7 +2038,7 @@
         <v>22</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -2054,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E5" s="2">
         <v>3600</v>
@@ -2081,13 +2079,13 @@
         <v>20</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -2101,7 +2099,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E6" s="2">
         <v>43200</v>
@@ -2128,13 +2126,13 @@
         <v>20</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -2148,7 +2146,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E7" s="2">
         <v>43200</v>
@@ -2179,7 +2177,7 @@
         <v>22</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -2193,7 +2191,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E8" s="2">
         <v>300</v>
@@ -2205,7 +2203,7 @@
         <v>536870912</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I8" s="2">
         <v>7200</v>
@@ -2220,13 +2218,13 @@
         <v>20</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -2240,7 +2238,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E9" s="2">
         <v>3600</v>
@@ -2265,13 +2263,13 @@
         <v>32</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -2285,19 +2283,19 @@
         <v>16</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2">
         <v>600</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="2">
         <v>95</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10" s="2">
         <v>7200</v>
@@ -2312,13 +2310,13 @@
         <v>32</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
@@ -2421,19 +2419,19 @@
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2">
         <v>1800</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G2" s="2">
         <v>10485760</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I2" s="2">
         <v>3600</v>
@@ -2442,19 +2440,19 @@
         <v>50</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="M2" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -2468,19 +2466,19 @@
         <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3" s="2">
         <v>1800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2">
         <v>10485760</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2">
         <v>3600</v>
@@ -2489,19 +2487,19 @@
         <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="M3" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -2515,13 +2513,13 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E4" s="2">
         <v>300</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2">
         <v>10000</v>
@@ -2534,19 +2532,19 @@
         <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -2560,13 +2558,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E5" s="2">
         <v>300</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2">
         <v>1000</v>
@@ -2579,19 +2577,19 @@
         <v>80</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="O5" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -2605,13 +2603,13 @@
         <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E6" s="2">
         <v>300</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2">
         <v>100</v>
@@ -2624,19 +2622,19 @@
         <v>80</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -2650,13 +2648,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E7" s="2">
         <v>300</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2">
         <v>100</v>
@@ -2669,19 +2667,19 @@
         <v>80</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -2729,7 +2727,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H25" sqref="G24:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2789,7 +2787,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -2803,19 +2801,19 @@
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2">
         <v>300</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2">
         <v>10485760</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I2" s="2">
         <v>3600</v>
@@ -2824,22 +2822,22 @@
         <v>80</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="M2" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
@@ -2853,19 +2851,19 @@
         <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E3" s="2">
         <v>300</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2">
         <v>10485760</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I3" s="2">
         <v>3600</v>
@@ -2874,22 +2872,22 @@
         <v>80</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="M3" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
@@ -2903,13 +2901,13 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E4" s="2">
         <v>300</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2">
         <v>-1</v>
@@ -2922,22 +2920,22 @@
         <v>50</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
@@ -2951,13 +2949,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E5" s="2">
         <v>300</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
@@ -2970,22 +2968,22 @@
         <v>50</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="M5" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
@@ -2999,13 +2997,13 @@
         <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E6" s="2">
         <v>300</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G6" s="2">
         <v>10</v>
@@ -3018,22 +3016,22 @@
         <v>50</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="M6" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
@@ -3047,13 +3045,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2">
         <v>300</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G7" s="2">
         <v>10</v>
@@ -3066,22 +3064,22 @@
         <v>50</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="M7" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3100,7 +3098,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3169,7 +3167,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E2" s="2">
         <v>300</v>
@@ -3196,13 +3194,13 @@
         <v>20</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -3216,7 +3214,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2">
         <v>600</v>
@@ -3249,7 +3247,7 @@
         <v>22</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -3263,19 +3261,19 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E4" s="2">
         <v>600</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2">
         <v>104857600</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2">
         <v>3600</v>
@@ -3287,16 +3285,16 @@
         <v>24</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -3310,19 +3308,19 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E5" s="2">
         <v>600</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2">
         <v>104857600</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="2">
         <v>3600</v>
@@ -3334,16 +3332,16 @@
         <v>24</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="27" x14ac:dyDescent="0.15">
@@ -3357,19 +3355,19 @@
         <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E6" s="2">
         <v>600</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2">
         <v>100</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="2">
         <v>3600</v>
@@ -3381,16 +3379,16 @@
         <v>24</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -3404,19 +3402,19 @@
         <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E7" s="2">
         <v>600</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2">
         <v>1E-3</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="2">
         <v>3600</v>
@@ -3428,16 +3426,16 @@
         <v>24</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -3451,19 +3449,19 @@
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E8" s="2">
         <v>600</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="2">
         <v>50</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="2">
         <v>3600</v>
@@ -3475,16 +3473,16 @@
         <v>24</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -3498,19 +3496,19 @@
         <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E9" s="2">
         <v>600</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="2">
         <v>0.02</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" s="2">
         <v>3600</v>
@@ -3522,16 +3520,16 @@
         <v>24</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -3545,19 +3543,19 @@
         <v>16</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2">
         <v>600</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I10" s="2">
         <v>3600</v>
@@ -3566,19 +3564,19 @@
         <v>80</v>
       </c>
       <c r="K10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="O10" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
@@ -3608,7 +3606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -3679,7 +3677,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2">
         <v>300</v>
@@ -3706,13 +3704,13 @@
         <v>20</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -3726,13 +3724,13 @@
         <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2">
         <v>300</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2">
         <v>536870912</v>
@@ -3753,13 +3751,13 @@
         <v>20</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -3773,19 +3771,19 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2">
         <v>300</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2">
         <v>90</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="2">
         <v>7200</v>
@@ -3794,19 +3792,19 @@
         <v>80</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -3820,7 +3818,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2">
         <v>300</v>
@@ -3832,7 +3830,7 @@
         <v>104857600</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="2">
         <v>3600</v>
@@ -3847,13 +3845,13 @@
         <v>20</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -3867,7 +3865,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2">
         <v>300</v>
@@ -3879,7 +3877,7 @@
         <v>104857600</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2">
         <v>3600</v>
@@ -3894,13 +3892,13 @@
         <v>20</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -3914,13 +3912,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2">
         <v>1800</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -3945,7 +3943,7 @@
         <v>22</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -3959,19 +3957,19 @@
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2">
         <v>600</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2">
         <v>3600</v>
@@ -3980,19 +3978,19 @@
         <v>80</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="O8" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -4161,19 +4159,19 @@
         <v>16</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2">
         <v>3600</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2">
         <v>100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2">
         <v>7200</v>
@@ -4182,19 +4180,19 @@
         <v>50</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -4208,13 +4206,13 @@
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2">
         <v>3600</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2">
         <v>1E-3</v>
@@ -4229,19 +4227,19 @@
         <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -4255,19 +4253,19 @@
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="8">
         <v>3600</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="8">
         <v>50</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="8">
         <v>7200</v>
@@ -4276,19 +4274,19 @@
         <v>50</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -4302,13 +4300,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="8">
         <v>3600</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="8">
         <v>0.02</v>
@@ -4323,19 +4321,19 @@
         <v>50</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -4349,7 +4347,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="8">
         <v>1800</v>
@@ -4382,7 +4380,7 @@
         <v>22</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -4396,19 +4394,19 @@
         <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="8">
         <v>600</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I7" s="8">
         <v>3600</v>
@@ -4417,19 +4415,19 @@
         <v>80</v>
       </c>
       <c r="K7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="O7" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -4443,19 +4441,19 @@
         <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="8">
         <v>600</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="8">
         <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="8">
         <v>3600</v>
@@ -4464,19 +4462,19 @@
         <v>80</v>
       </c>
       <c r="K8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="N8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="O8" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -4490,19 +4488,19 @@
         <v>16</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="8">
         <v>600</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="8">
         <v>90</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="8">
         <v>7200</v>
@@ -4511,19 +4509,19 @@
         <v>70</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -4537,19 +4535,19 @@
         <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="8">
         <v>600</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="8">
         <v>95</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10" s="8">
         <v>7200</v>
@@ -4558,19 +4556,19 @@
         <v>60</v>
       </c>
       <c r="K10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
@@ -4707,19 +4705,19 @@
         <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
         <v>1800</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2">
         <v>3600</v>
@@ -4728,19 +4726,19 @@
         <v>80</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -4754,19 +4752,19 @@
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2">
         <v>1800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2">
         <v>95</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="2">
         <v>7200</v>
@@ -4775,19 +4773,19 @@
         <v>60</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -4801,19 +4799,19 @@
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2">
         <v>600</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2">
         <v>100</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" s="2">
         <v>7200</v>
@@ -4822,19 +4820,19 @@
         <v>80</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -4848,19 +4846,19 @@
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2">
         <v>600</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2">
         <v>100</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I5" s="2">
         <v>7200</v>
@@ -4869,19 +4867,19 @@
         <v>85</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -4895,13 +4893,13 @@
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2">
         <v>600</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" s="2">
         <v>4</v>
@@ -4914,19 +4912,19 @@
         <v>85</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4940,7 +4938,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5003,19 +5001,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2">
         <v>600</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="G2" s="2">
         <v>600</v>
@@ -5028,19 +5026,19 @@
         <v>80</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -5048,25 +5046,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2">
         <v>43200</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I3" s="2">
         <v>43200</v>
@@ -5075,19 +5073,19 @@
         <v>60</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -5095,25 +5093,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2">
         <v>43200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G4" s="2">
         <v>1024</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I4" s="2">
         <v>43200</v>
@@ -5122,19 +5120,19 @@
         <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="N4" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -5142,25 +5140,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E5" s="2">
         <v>3600</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G5" s="2">
         <v>95</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" s="2">
         <v>7200</v>
@@ -5169,19 +5167,19 @@
         <v>80</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="O5" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -5189,13 +5187,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2">
         <v>600</v>
@@ -5210,19 +5208,19 @@
         <v>50</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="O6" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -5230,13 +5228,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2">
         <v>600</v>
@@ -5251,19 +5249,19 @@
         <v>50</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="O7" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
